--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4248332.084956241</v>
+        <v>4248332.084956239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>909594.02141662</v>
+        <v>1013653.403625738</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>682213.8818051494</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7193824.901374979</v>
+        <v>7193824.901374977</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200.9124899777286</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>300.0756065900698</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.546296656423092</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>41.03250833503017</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>20.55733941422325</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.5664311891571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>173.7001491014861</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>123.2558368419823</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>107.8328430602451</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.3098822773978</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>52.22403364383329</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>14.88716286735257</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>97.84525488987305</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>174.959120720869</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.6889300586755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>17.78458198347562</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>62.09617589318583</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>78.96695423238144</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.57809216555862</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,13 +2378,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>33.22448681017307</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.3221985675059</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.65680676724864</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,7 +2770,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>228.2066444308515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
         <v>42.28735533463131</v>
@@ -2998,13 +2998,13 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539622</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593977</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3092,10 +3092,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522971</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857348</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463271</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224547</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463141</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857224</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593969</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224541</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,10 +4037,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>131.7947857420145</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.690638606345</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.690638606345</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>935.4249399995942</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>935.4249399995942</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>928.4794392503908</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>510.5156311485777</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.690638606345</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.6820060902423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U4" t="n">
-        <v>686.6820060902423</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V4" t="n">
-        <v>686.6820060902423</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>686.6820060902423</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>686.6820060902423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.6820060902423</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>653.0832559835876</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>653.0832559835876</v>
       </c>
       <c r="E5" t="n">
         <v>632.3182666762914</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.422847177208</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.668876279069</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2533.198337851499</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2533.198337851499</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2279.43655248959</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1948.373665146019</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>1595.605009875905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1873.842488573869</v>
+        <v>1205.465677900094</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934728</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X10" t="n">
-        <v>418.6523285934728</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.6523285934728</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,40 +5030,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>472.7193925195011</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1086.61646227639</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1393.936595556351</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N12" t="n">
-        <v>1738.457251193969</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="O12" t="n">
-        <v>2407.921012496628</v>
+        <v>2139.125990538111</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.9645427683688</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C13" t="n">
-        <v>391.9645427683688</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033467</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663861</v>
+        <v>576.1735122404926</v>
       </c>
       <c r="X13" t="n">
-        <v>391.9645427683688</v>
+        <v>576.1735122404926</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.9645427683688</v>
+        <v>576.1735122404926</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5273,10 +5273,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514088</v>
@@ -5288,10 +5288,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899127</v>
@@ -5300,7 +5300,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>150.3242469823161</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>561.2145158268288</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>1175.111585583717</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M15" t="n">
-        <v>1943.479731976179</v>
+        <v>843.9587363963141</v>
       </c>
       <c r="N15" t="n">
-        <v>1943.479731976179</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O15" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>898.4844606964261</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293931</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924326</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X16" t="n">
-        <v>643.8194987924326</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.9821957028613</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L18" t="n">
-        <v>2786.879505108311</v>
+        <v>3359.285497699842</v>
       </c>
       <c r="M18" t="n">
-        <v>3081.239804034468</v>
+        <v>3679.620817229544</v>
       </c>
       <c r="N18" t="n">
         <v>3885.651382298619</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>284.1174986139257</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>115.1813156860188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>115.1813156860188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>115.1813156860188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>115.1813156860188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1436.192860564785</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1212.407445354291</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>923.2788065678494</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X19" t="n">
-        <v>465.7659634441654</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y19" t="n">
-        <v>465.7659634441654</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1764797001483</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>923.073549457037</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M21" t="n">
-        <v>1691.441695849499</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N21" t="n">
-        <v>1691.441695849499</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O21" t="n">
-        <v>2360.905457152158</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2543.548934765509</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3855.008409413976</v>
+        <v>3833.526634149342</v>
       </c>
       <c r="C22" t="n">
-        <v>3855.008409413976</v>
+        <v>3833.526634149342</v>
       </c>
       <c r="D22" t="n">
-        <v>3855.008409413976</v>
+        <v>3683.409994737007</v>
       </c>
       <c r="E22" t="n">
-        <v>3707.095315831583</v>
+        <v>3535.496901154614</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>3535.496901154614</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>3535.496901154614</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>3535.496901154614</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
         <v>4411.546387431056</v>
@@ -5932,28 +5932,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.074044281177</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V22" t="n">
-        <v>4326.074044281177</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="W22" t="n">
-        <v>4036.656874244216</v>
+        <v>4282.30876419089</v>
       </c>
       <c r="X22" t="n">
-        <v>4036.656874244216</v>
+        <v>4054.319213292873</v>
       </c>
       <c r="Y22" t="n">
-        <v>4036.656874244216</v>
+        <v>3833.526634149342</v>
       </c>
     </row>
     <row r="23">
@@ -5984,52 +5984,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="L24" t="n">
-        <v>263.5382936126482</v>
+        <v>2730.782467119151</v>
       </c>
       <c r="M24" t="n">
-        <v>1031.90644000511</v>
+        <v>3038.102600399113</v>
       </c>
       <c r="N24" t="n">
-        <v>1836.31801826926</v>
+        <v>3671.090189975885</v>
       </c>
       <c r="O24" t="n">
-        <v>2505.78177957192</v>
+        <v>4340.553951278544</v>
       </c>
       <c r="P24" t="n">
-        <v>2543.548934765509</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3925.661817631304</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C25" t="n">
-        <v>3925.661817631304</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D25" t="n">
-        <v>3925.661817631304</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>3777.748724048911</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048911</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4749.779469576118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4749.779469576118</v>
+        <v>1241.570767660365</v>
       </c>
       <c r="V25" t="n">
-        <v>4495.094981370231</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="W25" t="n">
-        <v>4495.094981370231</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="X25" t="n">
-        <v>4328.102861605073</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y25" t="n">
-        <v>4107.310282461543</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>588.6102378874778</v>
+        <v>635.6609815769497</v>
       </c>
       <c r="M27" t="n">
-        <v>1356.978384279939</v>
+        <v>1335.172049140323</v>
       </c>
       <c r="N27" t="n">
-        <v>2161.38996254409</v>
+        <v>1679.69270477794</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>2349.1564660806</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4666.287745568796</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>4442.502330358301</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>4153.373691571859</v>
       </c>
       <c r="V28" t="n">
-        <v>555.5704444251535</v>
+        <v>3898.689203365972</v>
       </c>
       <c r="W28" t="n">
-        <v>266.1532743881928</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881928</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>3609.272033329011</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,40 +6446,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6543,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>227.3238722865108</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>841.2209420433994</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1609.589088435861</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.793971740468</v>
+        <v>3481.793971740469</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852602</v>
+        <v>3381.677879852603</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480307</v>
+        <v>3300.381331480309</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937955</v>
+        <v>3221.288328937957</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480086</v>
+        <v>3143.218472480087</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.863241839947</v>
+        <v>3043.863241839949</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427932</v>
+        <v>2962.265324427933</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.55082408992</v>
+        <v>2919.550824089922</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782174</v>
+        <v>2999.384087782176</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.02006325513</v>
+        <v>3217.020063255131</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494604</v>
+        <v>3532.182679494605</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.199993490131</v>
+        <v>3871.199993490132</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746023</v>
+        <v>4209.194673746024</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979764</v>
+        <v>4510.520222979765</v>
       </c>
       <c r="P31" t="n">
         <v>4754.570558813792</v>
@@ -6661,10 +6661,10 @@
         <v>3905.764293492133</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634156</v>
+        <v>3746.594833634157</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.622345530667</v>
+        <v>3594.622345530668</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,16 +6701,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6740,7 +6740,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614725</v>
@@ -6768,7 +6768,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
@@ -6786,19 +6786,19 @@
         <v>327.180197328635</v>
       </c>
       <c r="M33" t="n">
-        <v>634.5003306085966</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N33" t="n">
-        <v>1438.911908872748</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2148.713336069209</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>3481.793971740469</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>3381.677879852603</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>3300.381331480306</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>3221.288328937954</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>3143.218472480085</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>3043.863241839947</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427931</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>2919.550824089919</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782174</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>3217.020063255129</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>3532.182679494603</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.19999349013</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746022</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979763</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813791</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.599560616158</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571751</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.534317401299</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>4312.225769654898</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>4126.361372489052</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492132</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>3746.594833634156</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>3594.622345530667</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L36" t="n">
-        <v>381.3300194168667</v>
+        <v>2948.395228855329</v>
       </c>
       <c r="M36" t="n">
-        <v>1149.698165809328</v>
+        <v>3716.76337524779</v>
       </c>
       <c r="N36" t="n">
-        <v>1954.109744073479</v>
+        <v>4046.626002911823</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>4558.069177677559</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3481.793971740469</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>3381.677879852603</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>3300.381331480309</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>3221.288328937957</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>3143.218472480087</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>3043.863241839949</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>2962.265324427933</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>2919.55082408992</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>2999.384087782174</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>3217.02006325513</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>3532.182679494604</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>3871.199993490131</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>4209.194673746023</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>4510.520222979764</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>3746.594833634157</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>3594.622345530668</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,7 +7208,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7257,22 +7257,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>343.9822193667499</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M39" t="n">
-        <v>1112.350365759211</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="N39" t="n">
-        <v>1456.871021396829</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O39" t="n">
-        <v>2126.334782699489</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,7 +7433,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,31 +7476,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>1067.429715884973</v>
+        <v>198.6865418035158</v>
       </c>
       <c r="M42" t="n">
-        <v>1387.765035414674</v>
+        <v>967.0546881959772</v>
       </c>
       <c r="N42" t="n">
-        <v>2192.176613678825</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O42" t="n">
         <v>2440.930027762787</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506724</v>
@@ -7564,7 +7564,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,28 +7664,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>596.0464174319409</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M45" t="n">
-        <v>1364.414563824402</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.414563824402</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="O45" t="n">
-        <v>2033.878325127062</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7831,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1254.715120915673</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1254.715120915673</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1000.030632709786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>710.6134626728254</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>228.7198150072277</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>11.73341248148758</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>439.4676692009645</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>172.1230490240162</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,22 +10434,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>79.88028296558826</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>234.2455651990296</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,10 +10920,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>241.048774065965</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,10 +11385,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>71.6650839324173</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>133.7283101508598</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>188.677743446718</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>111.2782316777084</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.895723293419252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>148.708986479902</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>135.8246340904174</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>66.45409379054981</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>34.84115329871338</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>253.0128655884043</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>60.38745682153129</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.2640032163546</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>23.9309988929765</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,22 +26071,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>89.75277531637479</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="11">
@@ -26314,31 +26314,31 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176764</v>
-      </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="L2" t="n">
         <v>800515.7256176766</v>
@@ -26347,13 +26347,13 @@
         <v>800515.7256176767</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176771</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758694</v>
@@ -26430,34 +26430,34 @@
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758692</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189642</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759314</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089668</v>
+        <v>-11370.37084089659</v>
       </c>
       <c r="C6" t="n">
-        <v>578597.5083736477</v>
+        <v>578597.5083736479</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736479</v>
+        <v>578597.5083736476</v>
       </c>
       <c r="E6" t="n">
-        <v>144571.5103723439</v>
+        <v>144571.5103723441</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.5468492403</v>
+        <v>669731.5468492402</v>
       </c>
       <c r="G6" t="n">
-        <v>669731.5468492401</v>
+        <v>669731.54684924</v>
       </c>
       <c r="H6" t="n">
-        <v>669731.5468492403</v>
+        <v>669731.5468492397</v>
       </c>
       <c r="I6" t="n">
-        <v>669731.5468492402</v>
+        <v>669731.5468492399</v>
       </c>
       <c r="J6" t="n">
-        <v>493308.3276566471</v>
+        <v>493308.327656647</v>
       </c>
       <c r="K6" t="n">
-        <v>625088.5267620425</v>
+        <v>625088.5267620424</v>
       </c>
       <c r="L6" t="n">
         <v>679594.0388657548</v>
@@ -26555,13 +26555,13 @@
         <v>544793.0236319178</v>
       </c>
       <c r="N6" t="n">
-        <v>679594.0388657548</v>
+        <v>679594.0388657551</v>
       </c>
       <c r="O6" t="n">
-        <v>679594.0388657553</v>
+        <v>679594.038865755</v>
       </c>
       <c r="P6" t="n">
-        <v>669731.5468492402</v>
+        <v>669731.5468492397</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>164.3604017932789</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.84716617428734</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>203.5992422935958</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>245.2493659069476</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>361.3730306580385</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>70.67150746689651</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>112.5817251404917</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>259.4780048214982</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>66.58286974872647</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>30.52209790453952</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>173.4856217452039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31373,10 +31373,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31601,19 +31601,19 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,28 +31847,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>325.2250109722227</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>304.0896619681708</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32096,16 +32096,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,19 +32312,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>339.4533939712871</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>183.9406168405207</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>316.3605066648813</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>291.3807413526811</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>264.0707480392351</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>383.0058060946173</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>4.797192695340925</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,16 +33506,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>207.1553426629848</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>54.69678998811281</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33980,28 +33980,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>301.1613483558688</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>317.7729748114128</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34211,19 +34211,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>332.6861108200253</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>271.5820405083898</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>379.2952535951669</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>191.2506035578925</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>53.64359143639424</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>627.6606917961524</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>297.3336352789462</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>208.1116818879539</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>46.09917786616173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>174.2264727428629</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>639.3814036129013</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>38.148641609686</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>496.3567135628201</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>706.5768359225989</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>131.4209907335605</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>362.2439852066964</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>391.6437038885917</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>286.9827555116978</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>516.6092674401377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>649.162010616089</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>502.2613360370198</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>564.9720763436103</v>
+        <v>102.4943942860908</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>503.8680060319747</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>354.0287861735254</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4248332.084956239</v>
+        <v>4321707.37394233</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1013653.403625738</v>
+        <v>458596.3049009338</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7193824.901374977</v>
+        <v>7095547.12642232</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>200.9124899777286</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>216.1416854575052</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>8.546296656423092</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>65.50057627590046</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55733941422325</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>98.09203546875385</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>39.64249074263762</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>107.8328430602451</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>149.6062985965392</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.3098822773978</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>6.59601561836874</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>76.26707429362997</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>97.84525488987305</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,13 +1821,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>174.959120720869</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>33.32336386742489</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>44.96582255351656</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>62.09617589318583</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>75.57809216555862</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>204.4650040757765</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.1103494143065</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>33.22448681017307</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>51.49189946436059</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.65680676724864</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539622</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>174.2219028265327</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857348</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>164.9007238670447</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>10.12173687217077</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224547</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463189</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>183.2820249438508</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857224</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>116.7279925914324</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>37.77589834984391</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>59.77945773664946</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>766.8520166562419</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4391,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,7 +4421,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>571.3497027553424</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1022.045772923999</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C5" t="n">
-        <v>653.0832559835876</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>653.0832559835876</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2324.402870410926</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4750,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.8658378359718</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2533.198337851499</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2533.198337851499</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="U8" t="n">
-        <v>2279.43655248959</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="V8" t="n">
-        <v>1948.373665146019</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="W8" t="n">
-        <v>1595.605009875905</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.605009875905</v>
+        <v>2491.002928218878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.465677900094</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>773.5003462121384</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="V10" t="n">
-        <v>352.67413830922</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="W10" t="n">
-        <v>352.67413830922</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X10" t="n">
-        <v>352.67413830922</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.67413830922</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5029,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
@@ -5060,7 +5062,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5118,28 +5120,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454149</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N12" t="n">
-        <v>1890.372576454149</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.125990538111</v>
+        <v>1818.001057576792</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>324.672548693787</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>324.672548693787</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
         <v>247.6350999123426</v>
@@ -5197,7 +5199,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5206,7 +5208,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>576.1735122404926</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X13" t="n">
-        <v>576.1735122404926</v>
+        <v>727.1135926675569</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.1735122404926</v>
+        <v>506.3210135240267</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,7 +5293,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899127</v>
@@ -5300,7 +5302,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>222.5746515181233</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M15" t="n">
-        <v>843.9587363963141</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.370314660465</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O15" t="n">
-        <v>2317.834075963124</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8104215925219</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>898.4844606964261</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>643.7999724905393</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W16" t="n">
-        <v>643.7999724905393</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X16" t="n">
-        <v>415.8104215925219</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.8104215925219</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098441</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>2745.388427942954</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="L18" t="n">
-        <v>3359.285497699842</v>
+        <v>2730.782467119152</v>
       </c>
       <c r="M18" t="n">
-        <v>3679.620817229544</v>
+        <v>3051.117786648854</v>
       </c>
       <c r="N18" t="n">
-        <v>3885.651382298619</v>
+        <v>3855.529364913004</v>
       </c>
       <c r="O18" t="n">
-        <v>4555.115143601278</v>
+        <v>4104.282778996967</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601278</v>
+        <v>4624.583400732714</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
         <v>4860.854573014292</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>310.8124359217951</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.192860564785</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1212.407445354291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>923.2788065678494</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>668.5943183619626</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>668.5943183619626</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619626</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>674.4285624571609</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M21" t="n">
-        <v>846.9127704725952</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1542.291338536857</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2211.755099839516</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3833.526634149342</v>
+        <v>4075.778457043642</v>
       </c>
       <c r="C22" t="n">
-        <v>3833.526634149342</v>
+        <v>4075.778457043642</v>
       </c>
       <c r="D22" t="n">
-        <v>3683.409994737007</v>
+        <v>3925.661817631306</v>
       </c>
       <c r="E22" t="n">
-        <v>3535.496901154614</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="F22" t="n">
-        <v>3535.496901154614</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G22" t="n">
-        <v>3535.496901154614</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H22" t="n">
-        <v>3535.496901154614</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.72593422785</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V22" t="n">
-        <v>4571.72593422785</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="W22" t="n">
-        <v>4282.30876419089</v>
+        <v>4282.308764190891</v>
       </c>
       <c r="X22" t="n">
-        <v>4054.319213292873</v>
+        <v>4282.308764190891</v>
       </c>
       <c r="Y22" t="n">
-        <v>3833.526634149342</v>
+        <v>4075.778457043642</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250802</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="K24" t="n">
-        <v>2500.819361250802</v>
+        <v>2483.567843300501</v>
       </c>
       <c r="L24" t="n">
-        <v>2730.782467119151</v>
+        <v>2671.944222085017</v>
       </c>
       <c r="M24" t="n">
-        <v>3038.102600399113</v>
+        <v>2992.279541614719</v>
       </c>
       <c r="N24" t="n">
-        <v>3671.090189975885</v>
+        <v>3796.69111987887</v>
       </c>
       <c r="O24" t="n">
-        <v>4340.553951278544</v>
+        <v>4045.444533962832</v>
       </c>
       <c r="P24" t="n">
-        <v>4860.854573014291</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.4452354807079</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>523.4447279085757</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>523.4447279085757</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>375.5316343261826</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>228.6416868282722</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>228.6416868282722</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1241.570767660365</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>986.8862794544777</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>986.8862794544777</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>986.8862794544777</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y25" t="n">
-        <v>766.0937003109476</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6248,13 +6250,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>635.6609815769497</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M27" t="n">
-        <v>1335.172049140323</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N27" t="n">
-        <v>1679.69270477794</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O27" t="n">
-        <v>2349.1564660806</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3609.272033329011</v>
+        <v>468.2819334614987</v>
       </c>
       <c r="C28" t="n">
-        <v>3609.272033329011</v>
+        <v>299.3457505335919</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>149.2291111212561</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4666.287745568796</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4442.502330358301</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>4153.373691571859</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>3898.689203365972</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W28" t="n">
-        <v>3609.272033329011</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X28" t="n">
-        <v>3609.272033329011</v>
+        <v>870.7229774352686</v>
       </c>
       <c r="Y28" t="n">
-        <v>3609.272033329011</v>
+        <v>649.9303982917385</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6454,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6549,13 +6551,13 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1819.161927111988</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.793971740469</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852603</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480309</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937957</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480087</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.863241839949</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427933</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.550824089922</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782176</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.020063255131</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494605</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.199993490132</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746024</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979765</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>4754.570558813792</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4818.599560616159</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>4687.499641571752</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>4532.5343174013</v>
+        <v>4373.87773946487</v>
       </c>
       <c r="U31" t="n">
-        <v>4312.225769654899</v>
+        <v>4084.749100678428</v>
       </c>
       <c r="V31" t="n">
-        <v>4126.361372489053</v>
+        <v>3830.064612472541</v>
       </c>
       <c r="W31" t="n">
-        <v>3905.764293492133</v>
+        <v>3830.064612472541</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634157</v>
+        <v>3830.064612472541</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.622345530668</v>
+        <v>3609.272033329011</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6768,37 +6770,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028583</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>327.180197328635</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M33" t="n">
-        <v>1095.548343721096</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="N33" t="n">
-        <v>1899.959921985247</v>
+        <v>1193.307431934636</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.713336069209</v>
+        <v>1862.771193237296</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.793971740469</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852603</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480306</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937954</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480085</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839947</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427931</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782174</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255129</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494603</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.19999349013</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746022</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979763</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813791</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.599560616158</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571751</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.534317401299</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.225769654898</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489052</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492132</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634156</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530667</v>
+        <v>677.4616523829102</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6934,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,19 +6952,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>2334.498159098441</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L36" t="n">
-        <v>2948.395228855329</v>
+        <v>473.8437298546977</v>
       </c>
       <c r="M36" t="n">
-        <v>3716.76337524779</v>
+        <v>794.1790493843995</v>
       </c>
       <c r="N36" t="n">
-        <v>4046.626002911823</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O36" t="n">
-        <v>4558.069177677559</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>854.4182661194308</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>685.4820831915239</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>685.4820831915239</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>537.5689896091308</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>854.4182661194308</v>
       </c>
     </row>
     <row r="38">
@@ -7169,52 +7171,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171745</v>
+        <v>754.8724882112629</v>
       </c>
       <c r="M39" t="n">
-        <v>711.1141612171745</v>
+        <v>794.1790493843995</v>
       </c>
       <c r="N39" t="n">
-        <v>1353.784551727103</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O39" t="n">
-        <v>2023.248313029762</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>3756.161980826922</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>3756.161980826922</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103134</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982979</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>4571.725934227852</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>4386.59257569871</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>4386.59257569871</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>4158.603024800693</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>3937.810445657162</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,34 +7408,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>246.2867756623458</v>
       </c>
       <c r="L42" t="n">
-        <v>198.6865418035158</v>
+        <v>860.1838454192346</v>
       </c>
       <c r="M42" t="n">
-        <v>967.0546881959772</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.466266460128</v>
+        <v>1525.039820586554</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.930027762787</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7627,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7664,28 +7666,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>904.39166832551</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M45" t="n">
-        <v>1672.759814717971</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N45" t="n">
-        <v>1672.759814717971</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O45" t="n">
-        <v>2023.248313029762</v>
+        <v>2338.526453983299</v>
       </c>
       <c r="P45" t="n">
         <v>2543.548934765509</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>472.4860691490226</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>303.5498862211157</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>303.5498862211157</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>303.5498862211157</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>303.5498862211157</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>135.3745645409363</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>654.1345339792623</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,19 +8780,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>150.644716994298</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>328.8335502692843</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,13 +9971,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10428,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,13 +10445,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>252.566062569312</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>224.3603153194822</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>234.2455651990296</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>181.8376310666008</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>241.048774065965</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11160,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>71.6650839324173</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23419,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>72.34839872458238</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>188.677743446718</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>111.2782316777084</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>253.1996344691661</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>122.2809985451113</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>135.8246340904174</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.84115329871338</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>14.11964927631828</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>18.80347895322961</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>253.0128655884043</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>94.94206318220859</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.2640032163546</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>47.32565823185652</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>60.80893152199246</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>135.2993111507605</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>68.85561837997719</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>169.7950057451586</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>111.1379300176922</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>192.3581855871785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636307.3716448199</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176764</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885327</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885327</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="H2" t="n">
-        <v>762506.6664885322</v>
-      </c>
       <c r="I2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="J2" t="n">
+        <v>762506.6664885329</v>
+      </c>
+      <c r="K2" t="n">
+        <v>762506.6664885328</v>
+      </c>
+      <c r="L2" t="n">
+        <v>762506.6664885326</v>
+      </c>
+      <c r="M2" t="n">
+        <v>762506.6664885327</v>
+      </c>
+      <c r="N2" t="n">
         <v>762506.6664885323</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>762506.6664885331</v>
+      </c>
+      <c r="P2" t="n">
         <v>762506.6664885324</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176767</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176766</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176767</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176767</v>
-      </c>
-      <c r="P2" t="n">
-        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759207</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759036</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758968</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758692</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905759314</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="L4" t="n">
-        <v>23206.58093189642</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>787.7936905758218</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>787.7936905758075</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189636</v>
+        <v>787.7936905758063</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089659</v>
+        <v>-11370.37084089691</v>
       </c>
       <c r="C6" t="n">
+        <v>578597.5083736477</v>
+      </c>
+      <c r="D6" t="n">
         <v>578597.5083736479</v>
       </c>
-      <c r="D6" t="n">
-        <v>578597.5083736476</v>
-      </c>
       <c r="E6" t="n">
-        <v>144571.5103723441</v>
+        <v>144571.5103723439</v>
       </c>
       <c r="F6" t="n">
         <v>669731.5468492402</v>
       </c>
       <c r="G6" t="n">
+        <v>669731.5468492402</v>
+      </c>
+      <c r="H6" t="n">
         <v>669731.54684924</v>
       </c>
-      <c r="H6" t="n">
-        <v>669731.5468492397</v>
-      </c>
       <c r="I6" t="n">
+        <v>669731.5468492403</v>
+      </c>
+      <c r="J6" t="n">
+        <v>493308.3276566477</v>
+      </c>
+      <c r="K6" t="n">
+        <v>669731.5468492402</v>
+      </c>
+      <c r="L6" t="n">
+        <v>669731.54684924</v>
+      </c>
+      <c r="M6" t="n">
+        <v>534930.5316154029</v>
+      </c>
+      <c r="N6" t="n">
         <v>669731.5468492399</v>
       </c>
-      <c r="J6" t="n">
-        <v>493308.327656647</v>
-      </c>
-      <c r="K6" t="n">
-        <v>625088.5267620424</v>
-      </c>
-      <c r="L6" t="n">
-        <v>679594.0388657548</v>
-      </c>
-      <c r="M6" t="n">
-        <v>544793.0236319178</v>
-      </c>
-      <c r="N6" t="n">
-        <v>679594.0388657551</v>
-      </c>
       <c r="O6" t="n">
-        <v>679594.038865755</v>
+        <v>669731.5468492408</v>
       </c>
       <c r="P6" t="n">
-        <v>669731.5468492397</v>
+        <v>669731.5468492399</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26697,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,10 +26755,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,10 +26825,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>164.3604017932789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>190.7343602842062</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>203.5992422935958</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>220.7812979660773</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>361.3730306580385</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>251.1489332486591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717195</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,13 +27824,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>246.6393834993401</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.58286974872647</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>66.84202176111859</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.52209790453952</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>140.0691763617891</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28567,22 +28569,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31370,13 +31372,13 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942361</v>
+        <v>160.6967431133298</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,19 +31837,19 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,10 +31858,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>325.2250109722227</v>
+        <v>320.3934755282638</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32077,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>304.0896619681708</v>
+        <v>158.0642534345934</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32312,31 +32314,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>339.4533939712871</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32551,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>316.3605066648813</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>220.7524402282539</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>291.3807413526811</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32968,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -33032,22 +33034,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>383.0058060946173</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>356.7593667819165</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,19 +33271,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>380.6284621420188</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>409.4103115654726</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>207.1553426629848</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>301.1613483558688</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>332.807726232196</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.016387659029</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35018,13 +35020,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>392.9827086369148</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>191.2506035578925</v>
+        <v>504.8818367538707</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>627.6606917961524</v>
+        <v>481.6352832625749</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>208.1116818879539</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>238.6577497793721</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>174.2264727428629</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>405.2408014538609</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>190.2791704894101</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>639.3814036129013</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>706.5768359225989</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>608.0254416142016</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>704.1994919700004</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>660.6763863977577</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>391.6437038885917</v>
+        <v>459.6594775008367</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>85.80593553960804</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>516.6092674401377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>39.70359714458245</v>
       </c>
       <c r="N39" t="n">
-        <v>649.162010616089</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>102.4943942860908</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>584.0738010644811</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>354.0287861735254</v>
+        <v>675.282462491314</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4321707.37394233</v>
+        <v>4314690.359050618</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458596.3049009338</v>
+        <v>602742.5293170955</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>216.1416854575052</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>297.5781613684819</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U4" t="n">
-        <v>65.50057627590046</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>124.7906123341839</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>98.09203546875385</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>39.64249074263762</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>149.6062985965392</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>127.7140457494436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.59601561836874</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>76.26707429362997</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>33.32336386742489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>44.96582255351656</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.4650040757765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>136.9575509524584</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>130.1103494143065</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>51.49189946436059</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>174.2219028265327</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>255.3303665522258</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>164.9007238670447</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="F37" t="n">
-        <v>10.12173687217077</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>183.2820249438508</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>116.7279925914324</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>37.77589834984391</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1152.640269254486</v>
+        <v>1137.701990660436</v>
       </c>
       <c r="C2" t="n">
-        <v>1152.640269254486</v>
+        <v>1137.701990660436</v>
       </c>
       <c r="D2" t="n">
-        <v>1152.640269254486</v>
+        <v>779.436292053686</v>
       </c>
       <c r="E2" t="n">
-        <v>766.8520166562419</v>
+        <v>779.436292053686</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>772.4907913044825</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>354.5269832026694</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y2" t="n">
-        <v>1152.640269254486</v>
+        <v>1524.301830724558</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>418.2614436197335</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>418.2614436197335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>418.2614436197335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1560.797780174034</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>586.651262799104</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>200.8630102008597</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>193.9175094516563</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>179.9941053902472</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>179.9941053902472</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2324.402870410926</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1950.937112149846</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1560.797780174034</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.4894537511405</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2491.002928218878</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2491.002928218878</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="V8" t="n">
-        <v>2491.002928218878</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="W8" t="n">
-        <v>2491.002928218878</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="X8" t="n">
-        <v>2491.002928218878</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.863596243066</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>773.5003462121384</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2627.754532504894</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>721.4663421676781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>432.0491721307175</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,7 +5026,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5062,7 +5062,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L12" t="n">
-        <v>904.3916683255102</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.726987855212</v>
+        <v>1157.264000062948</v>
       </c>
       <c r="N12" t="n">
-        <v>1569.24764349283</v>
+        <v>1961.675578327098</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.001057576792</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.943493278838</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.672548693787</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>324.672548693787</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5202,13 +5202,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655742</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655742</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>727.1135926675569</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.3210135240267</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.889396603097</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188992</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>675.7912901164498</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>2500.819361250803</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>2730.782467119152</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>3051.117786648854</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>3855.529364913004</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>4104.282778996967</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>4624.583400732714</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.8124359217951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>720.4504516500522</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,49 +5749,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.770682899239</v>
+        <v>1808.531915014687</v>
       </c>
       <c r="N21" t="n">
-        <v>1542.291338536857</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="O21" t="n">
-        <v>2211.755099839516</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P21" t="n">
         <v>2612.943493278838</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4075.778457043642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4075.778457043642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.725934227851</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4571.725934227851</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4282.308764190891</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4282.308764190891</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4075.778457043642</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.498159098442</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2483.567843300501</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2671.944222085017</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>2992.279541614719</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>3796.69111987887</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962832</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>692.3809108364826</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C25" t="n">
-        <v>523.4447279085757</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D25" t="n">
-        <v>523.4447279085757</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E25" t="n">
-        <v>375.5316343261826</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="F25" t="n">
-        <v>228.6416868282722</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>228.6416868282722</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6183,16 +6183,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.3809108364826</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,37 +6238,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>836.4717212750119</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1156.807040804714</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1501.327696442332</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>468.2819334614987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>299.3457505335919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>149.2291111212561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.712528333286</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>870.7229774352686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>649.9303982917385</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,13 +6551,13 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1786.860405229007</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3609.272033329011</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>3609.272033329011</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4373.87773946487</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4084.749100678428</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V31" t="n">
-        <v>3830.064612472541</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W31" t="n">
-        <v>3830.064612472541</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X31" t="n">
-        <v>3830.064612472541</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y31" t="n">
-        <v>3609.272033329011</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M33" t="n">
-        <v>388.8958536704856</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N33" t="n">
-        <v>1193.307431934636</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>1862.771193237296</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333287</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273998</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>844.0280401273998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,22 +6949,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>473.8437298546977</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>794.1790493843995</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>854.4182661194308</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C37" t="n">
-        <v>685.4820831915239</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D37" t="n">
-        <v>685.4820831915239</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E37" t="n">
-        <v>537.5689896091308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.210845262961</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>1075.210845262961</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.210845262961</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X37" t="n">
-        <v>1075.210845262961</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y37" t="n">
-        <v>854.4182661194308</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>754.8724882112629</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>794.1790493843995</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3756.161980826922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3756.161980826922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3606.045341414587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014294</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014294</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4571.725934227852</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4386.59257569871</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4386.59257569871</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4158.603024800693</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3937.810445657162</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,10 +7405,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7426,16 +7426,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>246.2867756623458</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>860.1838454192346</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1180.519164948936</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N42" t="n">
-        <v>1525.039820586554</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>891.9605584633442</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>891.9605584633442</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.9605584633442</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7669,31 +7669,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>865.5852378527475</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2338.526453983299</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.4860691490226</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>303.5498862211157</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>303.5498862211157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>303.5498862211157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>303.5498862211157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>135.3745645409363</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227924</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>874.9271131227924</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>874.9271131227924</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>874.9271131227924</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>654.1345339792623</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>346.3925274229723</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.644716994298</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,10 +9494,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>328.8335502692843</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>252.566062569312</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>224.3603153194822</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,16 +10679,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>181.8376310666008</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11162,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>72.34839872458238</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>79.4309254770907</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>253.1996344691661</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>122.2809985451113</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,19 +24132,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.11964927631828</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8.463497070472869</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>18.80347895322961</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>94.94206318220859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>47.32565823185652</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>60.80893152199246</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>7.280234771565603</v>
       </c>
       <c r="F37" t="n">
-        <v>135.2993111507605</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.85561837997719</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>169.7950057451586</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>111.1379300176922</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885327</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885329</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="K2" t="n">
         <v>762506.6664885328</v>
@@ -26349,10 +26349,10 @@
         <v>762506.6664885327</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885331</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885324</v>
@@ -26368,16 +26368,16 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.03523461802979e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905759207</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905759036</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758968</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905759288</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905759236</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758075</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758063</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26487,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089691</v>
+        <v>-11370.37084089659</v>
       </c>
       <c r="C6" t="n">
-        <v>578597.5083736477</v>
+        <v>578597.5083736478</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.5083736479</v>
+        <v>578597.5083736478</v>
       </c>
       <c r="E6" t="n">
-        <v>144571.5103723439</v>
+        <v>143596.9191126215</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.5468492402</v>
+        <v>668756.9555895186</v>
       </c>
       <c r="G6" t="n">
-        <v>669731.5468492402</v>
+        <v>668756.9555895185</v>
       </c>
       <c r="H6" t="n">
-        <v>669731.54684924</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="I6" t="n">
-        <v>669731.5468492403</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="J6" t="n">
-        <v>493308.3276566477</v>
+        <v>492333.7363969255</v>
       </c>
       <c r="K6" t="n">
-        <v>669731.5468492402</v>
+        <v>668756.9555895186</v>
       </c>
       <c r="L6" t="n">
-        <v>669731.54684924</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="M6" t="n">
-        <v>534930.5316154029</v>
+        <v>533955.9403556813</v>
       </c>
       <c r="N6" t="n">
-        <v>669731.5468492399</v>
+        <v>668756.9555895185</v>
       </c>
       <c r="O6" t="n">
-        <v>669731.5468492408</v>
+        <v>668756.9555895184</v>
       </c>
       <c r="P6" t="n">
-        <v>669731.5468492399</v>
+        <v>668756.9555895183</v>
       </c>
     </row>
   </sheetData>
@@ -26697,16 +26697,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26825,10 +26825,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26962,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>190.7343602842062</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>26.34461139587529</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U4" t="n">
-        <v>220.7812979660773</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>27.14070391067736</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>251.1489332486591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>246.6393834993401</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>66.84202176111859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>123.5101217588457</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>140.0691763617891</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28569,22 +28569,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942315</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>160.6967431133298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>222.0919426812387</v>
       </c>
       <c r="P12" t="n">
-        <v>320.3934755282638</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,16 +32077,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>158.0642534345934</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32314,16 +32314,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
@@ -32332,10 +32332,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32554,22 +32554,22 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>201.8898618898344</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>220.7524402282539</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32788,28 +32788,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,37 +33025,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>356.7593667819165</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33271,28 +33271,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>409.4103115654726</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,10 +33496,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33511,19 +33511,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,34 +34207,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>332.807726232196</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>102.4943942860908</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.016387659029</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>392.9827086369148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>473.3580175135238</v>
       </c>
       <c r="P12" t="n">
-        <v>504.8818367538707</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,19 +35576,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>481.6352832625749</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>215.050815339639</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>238.6577497793721</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>525.460891717816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>405.2408014538609</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>190.2791704894101</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>608.0254416142016</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>660.6763863977577</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>459.6594775008367</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>85.80593553960804</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>39.70359714458245</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>584.0738010644811</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>286.9827555116977</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>675.282462491314</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4314690.359050618</v>
+        <v>4319629.62189965</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>602742.5293170955</v>
+        <v>588649.8455435139</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>277.0880294074258</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>297.5781613684819</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609376</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,7 +1189,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>127.7140457494436</v>
+        <v>127.7140457494427</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586834</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.4898845065126</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0314030821034</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>82.65680676724948</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>136.9575509524584</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>33.32815808118189</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>255.3303665522258</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1137.701990660436</v>
+        <v>1117.004887669471</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.701990660436</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D2" t="n">
-        <v>779.436292053686</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>779.436292053686</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>772.4907913044825</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>354.5269832026694</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4369,13 +4369,13 @@
         <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.44116270037</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X2" t="n">
-        <v>1914.44116270037</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y2" t="n">
-        <v>1524.301830724558</v>
+        <v>1503.604727733592</v>
       </c>
     </row>
     <row r="3">
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
         <v>663.910013048764</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4801,13 +4801,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224074</v>
@@ -4822,16 +4822,16 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
         <v>2247.308246834948</v>
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,19 +5053,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704857</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>388.8958536704857</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.264000062948</v>
+        <v>967.0546881959771</v>
       </c>
       <c r="N12" t="n">
-        <v>1961.675578327098</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>2430.300015665487</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5369,10 +5369,10 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>2103.272883640391</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5463,19 +5463,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5509,31 +5509,31 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>180.7088154676086</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="20">
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5767,7 +5767,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
@@ -5998,22 +5998,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.6859735286132</v>
+        <v>467.9934022109801</v>
       </c>
       <c r="C25" t="n">
-        <v>665.6859735286132</v>
+        <v>299.0572192830732</v>
       </c>
       <c r="D25" t="n">
-        <v>665.6859735286132</v>
+        <v>299.0572192830732</v>
       </c>
       <c r="E25" t="n">
-        <v>665.6859735286132</v>
+        <v>299.0572192830732</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>299.0572192830732</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>130.8818976028938</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>870.43444618475</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286132</v>
+        <v>649.6418670412198</v>
       </c>
     </row>
     <row r="26">
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6414,16 +6414,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1017.221394183544</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>762.5369059776569</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>473.1197359406963</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6733,13 +6733,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6885,19 +6885,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028587</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6940,16 +6940,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>346.3925274229723</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>79.4309254770907</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.67825230693373</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>63.77715587931969</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>8.463497070472869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>115.5856702863542</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>30.90698584635157</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>7.280234771565603</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="14">
@@ -26316,7 +26316,7 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
@@ -26325,7 +26325,7 @@
         <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885327</v>
@@ -26334,10 +26334,10 @@
         <v>762506.6664885326</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="K2" t="n">
         <v>762506.6664885328</v>
@@ -26355,7 +26355,7 @@
         <v>762506.6664885326</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26438,7 +26438,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759288</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
@@ -26450,10 +26450,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089659</v>
+        <v>-11370.37084089656</v>
       </c>
       <c r="C6" t="n">
         <v>578597.5083736478</v>
@@ -26530,40 +26530,40 @@
         <v>578597.5083736478</v>
       </c>
       <c r="E6" t="n">
-        <v>143596.9191126215</v>
+        <v>144474.0512463713</v>
       </c>
       <c r="F6" t="n">
-        <v>668756.9555895186</v>
+        <v>669634.0877232678</v>
       </c>
       <c r="G6" t="n">
-        <v>668756.9555895185</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="H6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.087723268</v>
       </c>
       <c r="I6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.0877232682</v>
       </c>
       <c r="J6" t="n">
-        <v>492333.7363969255</v>
+        <v>493210.8685306751</v>
       </c>
       <c r="K6" t="n">
-        <v>668756.9555895186</v>
+        <v>669634.0877232682</v>
       </c>
       <c r="L6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.087723268</v>
       </c>
       <c r="M6" t="n">
-        <v>533955.9403556813</v>
+        <v>534833.0724894309</v>
       </c>
       <c r="N6" t="n">
-        <v>668756.9555895185</v>
+        <v>669634.0877232681</v>
       </c>
       <c r="O6" t="n">
-        <v>668756.9555895184</v>
+        <v>669634.087723268</v>
       </c>
       <c r="P6" t="n">
-        <v>668756.9555895183</v>
+        <v>669634.087723268</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26962,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>88.18486236358177</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>26.34461139587529</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047541</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>123.5101217588457</v>
+        <v>123.5101217588466</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>120.105142606069</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942293</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>139.432625713487</v>
+        <v>35.71704454958106</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>428.4290072203556</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>222.0919426812387</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31864,16 +31864,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32095,7 +32095,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>208.1179754252735</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32326,7 +32326,7 @@
         <v>380.6284621420188</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.0697047810465</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>224.6051223555648</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,16 +35175,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>323.920986939094</v>
+        <v>220.205405775188</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
@@ -35497,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>752.0000370483372</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>473.3580175135238</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>215.050815339639</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>704.1994919700004</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>572.6057846157851</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
